--- a/dados/112024-Revenda.xlsx
+++ b/dados/112024-Revenda.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="CCR CAMPANHA - AR CERTIFAST -" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1139,7 +1139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H159"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
